--- a/biology/Microbiologie/Aggregatibacter/Aggregatibacter.xlsx
+++ b/biology/Microbiologie/Aggregatibacter/Aggregatibacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aggregatibacter est un genre de bactéries gram négatives de la famille des Pasteurellaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aggregatibacter sont des bactéries gram negatives, non mobiles et anaérobies facultatives. Elles se présentent sous la forme de bacilles ou de coccobacilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aggregatibacter sont des bactéries gram negatives, non mobiles et anaérobies facultatives. Elles se présentent sous la forme de bacilles ou de coccobacilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (24 septembre 2023)[2], il existe 4 espèces dans ce genre bactérien :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (24 septembre 2023), il existe 4 espèces dans ce genre bactérien :
 Aggregatibacter actinomycetemcomitans (Klinger 1912) Nørskov-Lauritsen &amp; Kilian 2006
 Aggregatibacter aphrophilus (Khairat 1940) Nørskov-Lauritsen &amp; Kilian 2006
 Aggregatibacter kilianii Murra et al. 2019
@@ -576,12 +592,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aggregatibacter Nørskov-Lauritsen &amp; Kilian 2006[2].
-L'espèce type est : Aggregatibacter actinomycetemcomitans (Klinger 1912) Nørskov-Lauritsen &amp; Kilian 2006[2].
-Étymologie
-L'étymologie de ce genre porvient de sa capacité à s’agréger avec les autres bactéries et est la suivante : Ag.gre.ga.ti.bac.ter. L. inf. v. aggregare, arriver ensemble, s’agréger; N.L. masc. n. bacter, bacille; N.L. masc. n. Aggregatibacter, une bactérie en forme de bacille qui s'agrège avec les autres[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aggregatibacter Nørskov-Lauritsen &amp; Kilian 2006.
+L'espèce type est : Aggregatibacter actinomycetemcomitans (Klinger 1912) Nørskov-Lauritsen &amp; Kilian 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aggregatibacter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aggregatibacter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre porvient de sa capacité à s’agréger avec les autres bactéries et est la suivante : Ag.gre.ga.ti.bac.ter. L. inf. v. aggregare, arriver ensemble, s’agréger; N.L. masc. n. bacter, bacille; N.L. masc. n. Aggregatibacter, une bactérie en forme de bacille qui s'agrège avec les autres,.
 </t>
         </is>
       </c>
